--- a/public/assets/Contoh_Format_Tagihan.xlsx
+++ b/public/assets/Contoh_Format_Tagihan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Aplikasi-Payment\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C736A05-D0AD-4BED-BBA8-F5ADB6977EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD5357-63FA-4F84-A1EE-53AFEB08011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ABAD SYAHIDIN</t>
   </si>
@@ -31,21 +31,6 @@
     <t>ANDRA RYANDA</t>
   </si>
   <si>
-    <t>TI.20/6/I/23/001</t>
-  </si>
-  <si>
-    <t>TI.20/6/I/23/002</t>
-  </si>
-  <si>
-    <t>TI.20/6/I/23/003</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>kategori_pembayaran_id</t>
-  </si>
-  <si>
     <t>nama</t>
   </si>
   <si>
@@ -73,24 +58,9 @@
     <t>amount</t>
   </si>
   <si>
-    <t>openPayment</t>
-  </si>
-  <si>
-    <t>activeDate</t>
-  </si>
-  <si>
-    <t>inactiveDate</t>
-  </si>
-  <si>
-    <t>item_pembayaran_id</t>
-  </si>
-  <si>
     <t>nim</t>
   </si>
   <si>
-    <t>70c516d2-65b1-4e0f-900d-79ba516b10fe</t>
-  </si>
-  <si>
     <t>abad@gmail.com</t>
   </si>
   <si>
@@ -106,9 +76,6 @@
     <t>Teknik Mesin</t>
   </si>
   <si>
-    <t>9f56a49f-0a1e-4573-a77f-e9577f241473</t>
-  </si>
-  <si>
     <t>alvi@gmail.com</t>
   </si>
   <si>
@@ -128,6 +95,15 @@
   </si>
   <si>
     <t>Teknik Keperawatan</t>
+  </si>
+  <si>
+    <t>kategori_pembayaran</t>
+  </si>
+  <si>
+    <t>Uang Kuliah Tunggal</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
@@ -228,14 +204,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -246,7 +221,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -655,15 +629,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375"/>
@@ -675,221 +649,236 @@
     <col min="10" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="15" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>2104001</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>2104001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>2104002</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>2104002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2">
-        <v>2104001</v>
-      </c>
-      <c r="K2">
+      <c r="I4">
+        <v>2104003</v>
+      </c>
+      <c r="J4">
         <v>1000</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>2104001</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>45094</v>
-      </c>
-      <c r="P2" s="9">
-        <v>45104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>2104002</v>
-      </c>
-      <c r="K3">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>2104002</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9">
-        <v>45095</v>
-      </c>
-      <c r="P3" s="9">
-        <v>45105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
         <v>2104003</v>
       </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4">
-        <v>2104003</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9">
-        <v>45096</v>
-      </c>
-      <c r="P4" s="9">
-        <v>45106</v>
-      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="I15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C4">
+  <conditionalFormatting sqref="B2:B4">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{706A3AC9-736A-462A-98A0-A34FE6688BAA}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{9C17DE76-DE82-4F46-AF03-7BCC2352D4CE}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{4E875EDF-89FE-4378-B6F8-2B0403BC6182}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{4E875EDF-89FE-4378-B6F8-2B0403BC6182}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9C17DE76-DE82-4F46-AF03-7BCC2352D4CE}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{706A3AC9-736A-462A-98A0-A34FE6688BAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
